--- a/StockingProblemProject/Testes/Problema2/testes_mutacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema2/testes_mutacao/statistic_average_fitness_avaliado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema2\testes_mutacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A5994A08-887A-4443-A2AB-E25B51777E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1D5075-D458-41D5-AA02-35458103F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,9 +598,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,6 +609,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2244,15 +2244,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2289,41 +2290,41 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>100</v>
-      </c>
-      <c r="B2" s="7">
-        <v>200</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6">
+        <v>200</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
+      <c r="H2" s="6"/>
+      <c r="I2" s="7">
         <v>300.08</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>4251305681787650</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M2">
         <v>0.1</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>316.08</v>
       </c>
     </row>
@@ -2349,17 +2350,17 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>301.60000000000002</v>
       </c>
       <c r="J3" s="1">
         <v>5340411969127470</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="9"/>
       <c r="M3">
         <v>0.2</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>313.72000000000003</v>
       </c>
     </row>
@@ -2385,17 +2386,17 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>302.14</v>
       </c>
       <c r="J4" s="1">
         <v>470748340411307</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="9"/>
       <c r="M4">
         <v>0.3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>314.76</v>
       </c>
     </row>
@@ -2421,20 +2422,20 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>305.06</v>
       </c>
       <c r="J5" s="1">
         <v>5300603739198010</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="9"/>
       <c r="M5">
         <v>0.4</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>313.33999999999997</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2458,17 +2459,17 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>305.36</v>
       </c>
       <c r="J6" s="1">
         <v>5298150620735500</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="9"/>
       <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>311.45999999999998</v>
       </c>
     </row>
@@ -2494,17 +2495,17 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>305.58</v>
       </c>
       <c r="J7" s="1">
         <v>4271252743633880</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="9"/>
       <c r="M7">
         <v>0.6</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>308.56</v>
       </c>
     </row>
@@ -2530,17 +2531,17 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>305.83999999999997</v>
       </c>
       <c r="J8" s="1">
         <v>4989428825025960</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="9"/>
       <c r="M8">
         <v>0.7</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>306.92</v>
       </c>
     </row>
@@ -2566,17 +2567,17 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>306.77999999999997</v>
       </c>
       <c r="J9" s="1">
         <v>4734089141535040</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="9"/>
       <c r="M9">
         <v>0.8</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>305.83999999999997</v>
       </c>
     </row>
@@ -2602,17 +2603,17 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>306.92</v>
       </c>
       <c r="J10" s="1">
         <v>4551219616762080</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="9"/>
       <c r="M10">
         <v>0.9</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>305.58</v>
       </c>
     </row>
@@ -2638,19 +2639,19 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>308.56</v>
       </c>
       <c r="J11" s="1">
         <v>5607708979610120</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M11">
         <v>0.1</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>313.14</v>
       </c>
     </row>
@@ -2676,17 +2677,17 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>308.68</v>
       </c>
       <c r="J12" s="1">
         <v>4921138079753500</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="9"/>
       <c r="M12">
         <v>0.2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>309.56</v>
       </c>
     </row>
@@ -2712,17 +2713,17 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>309.56</v>
       </c>
       <c r="J13" s="1">
         <v>4530607023346870</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="9"/>
       <c r="M13">
         <v>0.3</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>308.68</v>
       </c>
     </row>
@@ -2748,17 +2749,17 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>311.45999999999998</v>
       </c>
       <c r="J14" s="1">
         <v>5204651765488250</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="9"/>
       <c r="M14">
         <v>0.4</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>305.36</v>
       </c>
     </row>
@@ -2784,17 +2785,17 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>313.14</v>
       </c>
       <c r="J15" s="1">
         <v>5000039999840000</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="9"/>
       <c r="M15">
         <v>0.5</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>306.77999999999997</v>
       </c>
     </row>
@@ -2820,17 +2821,17 @@
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>313.33999999999997</v>
       </c>
       <c r="J16" s="1">
         <v>5368836000475330</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="9"/>
       <c r="M16">
         <v>0.6</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>305.06</v>
       </c>
     </row>
@@ -2856,17 +2857,17 @@
       <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>313.72000000000003</v>
       </c>
       <c r="J17" s="1">
         <v>5610846638431660</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="9"/>
       <c r="M17">
         <v>0.7</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>301.60000000000002</v>
       </c>
     </row>
@@ -2892,17 +2893,17 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>314.2</v>
       </c>
       <c r="J18" s="1">
         <v>3698648401781380</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="9"/>
       <c r="M18">
         <v>0.8</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>300.08</v>
       </c>
     </row>
@@ -2928,17 +2929,17 @@
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>314.76</v>
       </c>
       <c r="J19" s="1">
         <v>5077637245806360</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="9"/>
       <c r="M19">
         <v>0.9</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>302.14</v>
       </c>
     </row>
@@ -2964,19 +2965,19 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>315.58</v>
       </c>
       <c r="J20" s="1">
         <v>4340921561143440</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M20">
         <v>0.1</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>323.62</v>
       </c>
     </row>
@@ -3002,17 +3003,17 @@
       <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>316.08</v>
       </c>
       <c r="J21" s="1">
         <v>4529194188815480</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="9"/>
       <c r="M21">
         <v>0.2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>322.14</v>
       </c>
     </row>
@@ -3038,17 +3039,17 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>316.8</v>
       </c>
       <c r="J22" s="1">
         <v>4890807704254990</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="9"/>
       <c r="M22">
         <v>0.3</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>321.32</v>
       </c>
     </row>
@@ -3074,17 +3075,17 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>317.2</v>
       </c>
       <c r="J23" s="1">
         <v>4.5343136195018496E+16</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="9"/>
       <c r="M23">
         <v>0.4</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>319.56</v>
       </c>
     </row>
@@ -3110,17 +3111,17 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>317.22000000000003</v>
       </c>
       <c r="J24" s="1">
         <v>4191849233930050</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="9"/>
       <c r="M24">
         <v>0.5</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>316.8</v>
       </c>
     </row>
@@ -3146,17 +3147,17 @@
       <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>317.89999999999998</v>
       </c>
       <c r="J25" s="1">
         <v>3996248240537610</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="9"/>
       <c r="M25">
         <v>0.6</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>315.58</v>
       </c>
     </row>
@@ -3182,17 +3183,17 @@
       <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>318.04000000000002</v>
       </c>
       <c r="J26" s="1">
         <v>4551746917393360</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="9"/>
       <c r="M26">
         <v>0.7</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>319</v>
       </c>
     </row>
@@ -3218,17 +3219,17 @@
       <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>319</v>
       </c>
       <c r="J27" s="1">
         <v>3.55527776692623E+16</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="9"/>
       <c r="M27">
         <v>0.8</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>319.5</v>
       </c>
     </row>
@@ -3254,17 +3255,17 @@
       <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>319.02</v>
       </c>
       <c r="J28" s="1">
         <v>3.71208836101728E+16</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="9"/>
       <c r="M28">
         <v>0.9</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>320.77999999999997</v>
       </c>
     </row>
@@ -3290,19 +3291,19 @@
       <c r="G29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>319.33999999999997</v>
       </c>
       <c r="J29" s="1">
         <v>3813712102401010</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="M29">
         <v>0.1</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>323.44</v>
       </c>
     </row>
@@ -3328,17 +3329,17 @@
       <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>319.5</v>
       </c>
       <c r="J30" s="1">
         <v>3.23882694814032E+16</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="9"/>
       <c r="M30">
         <v>0.2</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>321.86</v>
       </c>
     </row>
@@ -3364,17 +3365,17 @@
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>319.56</v>
       </c>
       <c r="J31" s="1">
         <v>4332020313895120</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="9"/>
       <c r="M31">
         <v>0.3</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>320.98</v>
       </c>
     </row>
@@ -3400,17 +3401,17 @@
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>319.76</v>
       </c>
       <c r="J32" s="1">
         <v>5323758071137340</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="9"/>
       <c r="M32">
         <v>0.4</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>320.38</v>
       </c>
     </row>
@@ -3436,17 +3437,17 @@
       <c r="G33" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>320.24</v>
       </c>
       <c r="J33" s="1">
         <v>3289741631192330</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="9"/>
       <c r="M33">
         <v>0.5</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>319.02</v>
       </c>
     </row>
@@ -3472,17 +3473,17 @@
       <c r="G34" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>320.38</v>
       </c>
       <c r="J34" s="1">
         <v>4316897033750050</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="9"/>
       <c r="M34">
         <v>0.6</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>317.2</v>
       </c>
     </row>
@@ -3508,17 +3509,17 @@
       <c r="G35" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>320.77999999999997</v>
       </c>
       <c r="J35" s="1">
         <v>2.46811669092042E+16</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="9"/>
       <c r="M35">
         <v>0.7</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>314.2</v>
       </c>
     </row>
@@ -3544,17 +3545,17 @@
       <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>320.98</v>
       </c>
       <c r="J36" s="1">
         <v>3.6741801806661504E+16</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="9"/>
       <c r="M36">
         <v>0.8</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>317.89999999999998</v>
       </c>
     </row>
@@ -3580,17 +3581,17 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>321.3</v>
       </c>
       <c r="J37" s="1">
         <v>3.78549864614954E+16</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="9"/>
       <c r="M37">
         <v>0.9</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>319.33999999999997</v>
       </c>
     </row>
@@ -3616,19 +3617,19 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>321.32</v>
       </c>
       <c r="J38" s="1">
         <v>402710814356903</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M38">
         <v>0.1</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <v>327.58</v>
       </c>
     </row>
@@ -3654,17 +3655,17 @@
       <c r="G39" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>321.86</v>
       </c>
       <c r="J39" s="1">
         <v>3919234619157160</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="9"/>
       <c r="M39">
         <v>0.2</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>326.62</v>
       </c>
     </row>
@@ -3690,17 +3691,17 @@
       <c r="G40" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>321.95999999999998</v>
       </c>
       <c r="J40" s="1">
         <v>2.64544892220583E+16</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="9"/>
       <c r="M40">
         <v>0.3</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>327.92</v>
       </c>
     </row>
@@ -3726,17 +3727,17 @@
       <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>322.14</v>
       </c>
       <c r="J41" s="1">
         <v>4358944826445950</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="9"/>
       <c r="M41">
         <v>0.4</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>328.4</v>
       </c>
     </row>
@@ -3762,17 +3763,17 @@
       <c r="G42" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>322.16000000000003</v>
       </c>
       <c r="J42" s="1">
         <v>3.17716855076969E+16</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="9"/>
       <c r="M42">
         <v>0.5</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>327.86</v>
       </c>
     </row>
@@ -3798,17 +3799,17 @@
       <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>322.58</v>
       </c>
       <c r="J43" s="1">
         <v>4622077454997910</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="9"/>
       <c r="M43">
         <v>0.6</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>327.82</v>
       </c>
     </row>
@@ -3834,17 +3835,17 @@
       <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>323.44</v>
       </c>
       <c r="J44" s="1">
         <v>4010785459233630</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="9"/>
       <c r="M44">
         <v>0.7</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <v>328.88</v>
       </c>
     </row>
@@ -3870,17 +3871,17 @@
       <c r="G45" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>323.62</v>
       </c>
       <c r="J45" s="1">
         <v>4.84516253597338E+16</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="9"/>
       <c r="M45">
         <v>0.8</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <v>327.18</v>
       </c>
     </row>
@@ -3906,17 +3907,17 @@
       <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>323.92</v>
       </c>
       <c r="J46" s="1">
         <v>369237051228611</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="9"/>
       <c r="M46">
         <v>0.9</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <v>327.74</v>
       </c>
     </row>
@@ -3942,19 +3943,19 @@
       <c r="G47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>326.62</v>
       </c>
       <c r="J47" s="1">
         <v>4853411171536980</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M47">
         <v>0.1</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <v>323.92</v>
       </c>
     </row>
@@ -3980,17 +3981,17 @@
       <c r="G48" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>327.18</v>
       </c>
       <c r="J48" s="1">
         <v>4528531770894400</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="9"/>
       <c r="M48">
         <v>0.2</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <v>322.58</v>
       </c>
     </row>
@@ -4016,17 +4017,17 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>327.58</v>
       </c>
       <c r="J49" s="1">
         <v>425248162841417</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="9"/>
       <c r="M49">
         <v>0.3</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <v>321.3</v>
       </c>
     </row>
@@ -4052,17 +4053,17 @@
       <c r="G50" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>327.74</v>
       </c>
       <c r="J50" s="1">
         <v>3.9689293266572496E+16</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="9"/>
       <c r="M50">
         <v>0.4</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>319.76</v>
       </c>
     </row>
@@ -4088,17 +4089,17 @@
       <c r="G51" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>327.82</v>
       </c>
       <c r="J51" s="1">
         <v>4357476333842790</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="9"/>
       <c r="M51">
         <v>0.5</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <v>318.04000000000002</v>
       </c>
     </row>
@@ -4124,17 +4125,17 @@
       <c r="G52" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>327.86</v>
       </c>
       <c r="J52" s="1">
         <v>4660514993002380</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="9"/>
       <c r="M52">
         <v>0.6</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <v>317.22000000000003</v>
       </c>
     </row>
@@ -4160,17 +4161,17 @@
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>327.92</v>
       </c>
       <c r="J53" s="1">
         <v>5125777989729940</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="9"/>
       <c r="M53">
         <v>0.7</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>320.24</v>
       </c>
     </row>
@@ -4196,17 +4197,17 @@
       <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>328.4</v>
       </c>
       <c r="J54" s="1">
         <v>4176122603564210</v>
       </c>
-      <c r="L54" s="3"/>
+      <c r="L54" s="9"/>
       <c r="M54">
         <v>0.8</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <v>322.16000000000003</v>
       </c>
     </row>
@@ -4232,17 +4233,17 @@
       <c r="G55" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>328.88</v>
       </c>
       <c r="J55" s="1">
         <v>3.91734604036968E+16</v>
       </c>
-      <c r="L55" s="3"/>
+      <c r="L55" s="9"/>
       <c r="M55">
         <v>0.9</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <v>321.95999999999998</v>
       </c>
     </row>
